--- a/01_Requirements/LedgerTypes/019_Capital account- Firm.xlsx
+++ b/01_Requirements/LedgerTypes/019_Capital account- Firm.xlsx
@@ -32,15 +32,9 @@
     <t xml:space="preserve">This screen is applicable only for Partnership Firm </t>
   </si>
   <si>
-    <t xml:space="preserve">Partners Capital Account Ledger Creation </t>
-  </si>
-  <si>
     <t>% of share capital has to come automatically as per the original firm entity creation data</t>
   </si>
   <si>
-    <t xml:space="preserve">Name of the Partners </t>
-  </si>
-  <si>
     <t>% of the Share capital</t>
   </si>
   <si>
@@ -78,13 +72,19 @@
   </si>
   <si>
     <t xml:space="preserve">If Adjustments are not considered, all items should go to the Partners current account no </t>
+  </si>
+  <si>
+    <t>Partners Capital Account Ledger Creation</t>
+  </si>
+  <si>
+    <t>Name of the Partners</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,10 +220,43 @@
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,53 +267,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,285 +567,275 @@
   </sheetPr>
   <dimension ref="D2:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:J4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="60.28515625" style="2" customWidth="1"/>
-    <col min="5" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="3" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+      <c r="I5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D5" s="6"/>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D6" s="6" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D8" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D10" s="6" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="3"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D12" s="13" t="s">
+      <c r="E14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D13" s="13"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D14" s="6" t="s">
+      <c r="E16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D15" s="6"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D16" s="6" t="s">
+      <c r="E18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D18" s="6" t="s">
+      <c r="E20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="2"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D20" s="6" t="s">
+      <c r="E22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D21" s="6"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D22" s="6" t="s">
+      <c r="E24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="4:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="2"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D24" s="6" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D25" s="6"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="4:10" ht="30.75" customHeight="1" thickBot="1">
-      <c r="D26" s="6"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D27" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D29" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="31" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="31" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="D2:J2"/>
@@ -858,6 +848,16 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D31:J31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.31496062992126" top="0.15748031496063" bottom="0.15748031496063" header="0.31496062992126" footer="0.31496062992126"/>
